--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,14 +82,18 @@
   </si>
   <si>
     <t>_201805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lvl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,19 +412,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -430,8 +434,11 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -440,10 +447,14 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="D2">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -451,11 +462,15 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C21" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C3:D21" ca="1" si="0">RANDBETWEEN(1,100)</f>
+        <v>59</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -464,10 +479,14 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -476,10 +495,14 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -488,10 +511,14 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -500,10 +527,14 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -512,10 +543,14 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -524,10 +559,14 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -536,10 +575,14 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -548,10 +591,14 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -560,10 +607,14 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -572,10 +623,14 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -584,10 +639,14 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -596,10 +655,14 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -608,10 +671,14 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -620,10 +687,14 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -632,10 +703,14 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -644,10 +719,14 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -656,10 +735,14 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -668,7 +751,11 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>86</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
